--- a/data/trans_bre/P1424_2016_2023-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1424_2016_2023-Provincia-trans_bre.xlsx
@@ -598,7 +598,7 @@
         <v>4.678991516825059</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>4.853990265946346</v>
+        <v>4.853990265946345</v>
       </c>
     </row>
     <row r="5">
@@ -609,13 +609,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.660742707809682</v>
+        <v>4.417672983184244</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4120862574004915</v>
+        <v>0.2935089613463629</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1.075735591347207</v>
+        <v>0.906691783027275</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
     </row>
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.831596371384</v>
+        <v>12.74554873456026</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.779947626919128</v>
+        <v>2.842883474194127</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>21.57140409010709</v>
+        <v>18.82506066504679</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
     </row>
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.251395844640043</v>
+        <v>2.220645248893483</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.621728985985614</v>
+        <v>3.965974109962106</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.6132737445406258</v>
+        <v>0.6838834809704732</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.585520983019994</v>
+        <v>0.7031628968995443</v>
       </c>
     </row>
     <row r="9">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.25539448241739</v>
+        <v>7.489933926351094</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.482342363319738</v>
+        <v>9.660065848365319</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.483137876928041</v>
+        <v>6.27922471066271</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.789222783739636</v>
+        <v>4.119878865534252</v>
       </c>
     </row>
     <row r="10">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6610056198808363</v>
+        <v>0.5180282289704448</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.382365022815017</v>
+        <v>-1.490563948079733</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.04597828598688758</v>
+        <v>-0.007619463565208331</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1438558747852247</v>
+        <v>-0.154274032730413</v>
       </c>
     </row>
     <row r="12">
@@ -753,16 +753,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.784861233834693</v>
+        <v>5.7695972644916</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.307161180475183</v>
+        <v>6.091851447278763</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>13.50736170093469</v>
+        <v>12.01813383960646</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.125672309538152</v>
+        <v>1.083739546170691</v>
       </c>
     </row>
     <row r="13">
@@ -780,13 +780,13 @@
         <v>1.249620284142718</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>2.570906060992539</v>
+        <v>2.570906060992541</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.5567574099489675</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.5184122992243944</v>
+        <v>0.5184122992243947</v>
       </c>
     </row>
     <row r="14">
@@ -797,16 +797,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.2116977257006</v>
+        <v>-1.160842264949597</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.115478631305555</v>
+        <v>-0.9213058436194262</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4237667632244482</v>
+        <v>-0.4011163160101829</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1659029024843038</v>
+        <v>-0.1674028237880458</v>
       </c>
     </row>
     <row r="15">
@@ -817,16 +817,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.719308258824278</v>
+        <v>3.595017965493884</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.95720555049601</v>
+        <v>5.680251018770755</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.103521400683704</v>
+        <v>2.818079202517275</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.933600923115942</v>
+        <v>1.770265007232948</v>
       </c>
     </row>
     <row r="16">
@@ -844,13 +844,13 @@
         <v>5.748564586184891</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>5.682978170615644</v>
+        <v>5.682978170615642</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>2.084821835200633</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>9.346841074808994</v>
+        <v>9.346841074808992</v>
       </c>
     </row>
     <row r="17">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.621619322153047</v>
+        <v>1.501277833814778</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.603501868940187</v>
+        <v>3.381698854084297</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.179757557103865</v>
+        <v>0.2009575696467565</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>1.06270774299357</v>
+        <v>1.510975066649149</v>
       </c>
     </row>
     <row r="18">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.04922846158189</v>
+        <v>10.44021790950768</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.899650570025164</v>
+        <v>8.416602683298196</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8.097558556363037</v>
+        <v>7.987117451315845</v>
       </c>
       <c r="F18" s="6" t="inlineStr"/>
     </row>
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.183072555087411</v>
+        <v>1.017814542924912</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3886482223215544</v>
+        <v>0.1531631390806138</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.08544980312222096</v>
+        <v>0.133289847201297</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.02788243136972105</v>
+        <v>0.006443954514512985</v>
       </c>
     </row>
     <row r="21">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.457800869959165</v>
+        <v>7.481482320935366</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.874842668928693</v>
+        <v>8.850934914720137</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>12.78669923635336</v>
+        <v>15.12775641395328</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.371206223138076</v>
+        <v>1.319535538856954</v>
       </c>
     </row>
     <row r="22">
@@ -970,13 +970,13 @@
         <v>5.863071833422973</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>7.545662443634532</v>
+        <v>7.545662443634529</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>5.403451293819106</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1.371279864597198</v>
+        <v>1.371279864597197</v>
       </c>
     </row>
     <row r="23">
@@ -987,16 +987,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.827723168476695</v>
+        <v>3.832169992652926</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.610026156263835</v>
+        <v>4.558153724084056</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1.943873865606074</v>
+        <v>1.855650218193842</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.5807292467454876</v>
+        <v>0.6176705759659501</v>
       </c>
     </row>
     <row r="24">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.214318807988716</v>
+        <v>8.380725056238735</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.47376025608603</v>
+        <v>10.51835021913531</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>15.21193902779136</v>
+        <v>14.39484147209776</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>2.39138641801929</v>
+        <v>2.547806581792544</v>
       </c>
     </row>
     <row r="25">
@@ -1034,7 +1034,7 @@
         <v>4.679790849973772</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>4.276247919236877</v>
+        <v>4.276247919236878</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>1.867979976258981</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.542385614644756</v>
+        <v>2.358607117937901</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.199860469389568</v>
+        <v>2.131802944895426</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.7464096088301775</v>
+        <v>0.7002147075923605</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.5492080474246005</v>
+        <v>0.514090674148195</v>
       </c>
     </row>
     <row r="27">
@@ -1071,16 +1071,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.81903868056407</v>
+        <v>6.989766552381338</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6.290245990448462</v>
+        <v>6.246416483038529</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4.115527061449669</v>
+        <v>3.865693425541232</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.188876810076593</v>
+        <v>3.027470644355853</v>
       </c>
     </row>
     <row r="28">
@@ -1098,7 +1098,7 @@
         <v>4.648459623853652</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>4.888154019769205</v>
+        <v>4.888154019769207</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>2.439605688789573</v>
@@ -1115,16 +1115,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.677036937808465</v>
+        <v>3.630021770870077</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.839887443787389</v>
+        <v>3.77328885791467</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>1.566415081389887</v>
+        <v>1.496597937521099</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>0.7892263946510857</v>
+        <v>0.7559073491031092</v>
       </c>
     </row>
     <row r="30">
@@ -1135,16 +1135,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.725173084281971</v>
+        <v>5.645658279093438</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.010342505430252</v>
+        <v>6.014391182405556</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3.587972718457449</v>
+        <v>3.510113881984238</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1.637170980295328</v>
+        <v>1.60912862819568</v>
       </c>
     </row>
     <row r="31">
